--- a/MinMax_Coefficient.xlsx
+++ b/MinMax_Coefficient.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
